--- a/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 7,94</t>
+          <t>-12,54; 7,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 11,92</t>
+          <t>-9,09; 11,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 17,22</t>
+          <t>-5,78; 17,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 7,93</t>
+          <t>-14,62; 8,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 11,5</t>
+          <t>-10,73; 12,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 13,47</t>
+          <t>-7,14; 12,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 5,03</t>
+          <t>-10,8; 4,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 9,22</t>
+          <t>-6,29; 9,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 13,0</t>
+          <t>-2,14; 12,98</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 58,75</t>
+          <t>-48,66; 49,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 82,5</t>
+          <t>-34,99; 77,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 114,47</t>
+          <t>-24,8; 113,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 34,06</t>
+          <t>-43,1; 36,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 49,62</t>
+          <t>-31,34; 53,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 59,59</t>
+          <t>-20,06; 55,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 24,66</t>
+          <t>-38,36; 22,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 46,08</t>
+          <t>-22,38; 41,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 63,47</t>
+          <t>-7,85; 63,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,5</t>
+          <t>-2,69; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,26</t>
+          <t>-5,7; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,47</t>
+          <t>1,46; 10,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,47</t>
+          <t>-7,23; 3,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 1,99</t>
+          <t>-8,59; 2,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,07</t>
+          <t>-9,82; 0,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,18</t>
+          <t>-3,67; 3,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,38</t>
+          <t>-5,62; 1,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,03</t>
+          <t>-2,66; 4,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 46,23</t>
+          <t>-13,97; 46,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 22,68</t>
+          <t>-31,2; 21,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 72,43</t>
+          <t>7,8; 73,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 13,0</t>
+          <t>-22,76; 11,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 6,69</t>
+          <t>-25,6; 8,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 0,43</t>
+          <t>-30,57; 0,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 14,6</t>
+          <t>-14,85; 16,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 6,16</t>
+          <t>-22,82; 5,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 18,29</t>
+          <t>-10,65; 18,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,35</t>
+          <t>-1,27; 5,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,3</t>
+          <t>-2,93; 3,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,0</t>
+          <t>-5,19; 2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 0,42</t>
+          <t>-8,4; -0,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -3,24</t>
+          <t>-11,39; -3,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -3,62</t>
+          <t>-10,95; -3,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,58</t>
+          <t>-3,95; 1,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,82</t>
+          <t>-6,29; -1,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -1,44</t>
+          <t>-7,1; -1,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 39,62</t>
+          <t>-7,21; 40,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 24,92</t>
+          <t>-16,97; 27,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 13,36</t>
+          <t>-30,14; 14,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 1,41</t>
+          <t>-24,95; -1,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,13; -10,93</t>
+          <t>-34,19; -11,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,32; -12,0</t>
+          <t>-32,38; -12,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 7,07</t>
+          <t>-15,45; 7,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,59; -3,65</t>
+          <t>-25,09; -5,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,65; -6,63</t>
+          <t>-28,44; -8,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,31</t>
+          <t>-3,73; 4,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,89</t>
+          <t>-4,34; 3,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,89</t>
+          <t>-4,1; 3,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,61</t>
+          <t>-3,1; 6,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 0,58</t>
+          <t>-9,14; -0,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -3,57</t>
+          <t>-15,5; -3,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,18</t>
+          <t>-2,3; 4,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,14</t>
+          <t>-5,45; 0,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -1,32</t>
+          <t>-8,18; -0,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 30,92</t>
+          <t>-20,75; 31,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 27,42</t>
+          <t>-24,15; 26,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 26,95</t>
+          <t>-23,53; 26,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 23,53</t>
+          <t>-10,65; 26,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 2,51</t>
+          <t>-31,78; -0,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,13; -14,76</t>
+          <t>-54,86; -14,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 21,23</t>
+          <t>-10,0; 21,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 5,67</t>
+          <t>-23,81; 3,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,05; -6,6</t>
+          <t>-37,32; -4,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,59</t>
+          <t>-2,66; 3,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,62</t>
+          <t>-2,26; 3,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,03</t>
+          <t>1,6; 7,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,12</t>
+          <t>-5,62; 2,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,38</t>
+          <t>-7,29; 0,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,46</t>
+          <t>-5,25; 1,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,96</t>
+          <t>-3,47; 1,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,92</t>
+          <t>-4,08; 1,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,92</t>
+          <t>-1,36; 3,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 28,03</t>
+          <t>-16,59; 31,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 28,58</t>
+          <t>-13,94; 28,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,52; 62,47</t>
+          <t>9,72; 59,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 8,78</t>
+          <t>-19,95; 8,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 2,04</t>
+          <t>-25,81; 3,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 5,9</t>
+          <t>-18,68; 6,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 10,05</t>
+          <t>-15,53; 9,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 4,84</t>
+          <t>-18,23; 6,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 20,42</t>
+          <t>-6,19; 19,63</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-0,74; 2,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-1,6; 1,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,04</t>
+          <t>0,21; 3,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-4,14; 0,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-7,03; -2,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,2</t>
+          <t>-8,12; -3,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-1,86; 1,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-3,67; -0,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,09</t>
+          <t>-2,98; -0,04</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 19,26</t>
+          <t>-4,39; 19,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,33</t>
+          <t>-9,86; 12,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,64; 27,29</t>
+          <t>1,23; 26,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,33</t>
+          <t>-13,77; 1,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -9,4</t>
+          <t>-23,9; -9,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -11,8</t>
+          <t>-28,08; -11,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,0</t>
+          <t>-8,1; 5,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,48</t>
+          <t>-16,15; -4,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -0,48</t>
+          <t>-12,93; -0,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 7,6</t>
+          <t>-13,14; 7,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 11,92</t>
+          <t>-8,65; 12,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 17,01</t>
+          <t>-6,03; 17,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 8,38</t>
+          <t>-14,02; 8,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 12,2</t>
+          <t>-11,46; 12,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 12,52</t>
+          <t>-5,64; 14,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 4,51</t>
+          <t>-10,93; 4,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 9,12</t>
+          <t>-6,95; 8,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 12,98</t>
+          <t>-2,07; 13,22</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 49,27</t>
+          <t>-47,43; 55,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 77,81</t>
+          <t>-33,23; 84,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 113,71</t>
+          <t>-23,88; 116,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 36,2</t>
+          <t>-41,63; 37,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 53,22</t>
+          <t>-33,74; 54,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 55,28</t>
+          <t>-16,06; 59,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 22,68</t>
+          <t>-37,55; 23,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 41,15</t>
+          <t>-24,55; 40,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 63,32</t>
+          <t>-7,87; 65,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 6,52</t>
+          <t>-3,6; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 3,06</t>
+          <t>-5,48; 3,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 10,56</t>
+          <t>1,27; 10,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,18</t>
+          <t>-7,75; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 2,4</t>
+          <t>-8,92; 1,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 0,33</t>
+          <t>-10,5; -0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,62</t>
+          <t>-3,79; 3,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,16</t>
+          <t>-5,83; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,1</t>
+          <t>-2,62; 3,97</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 46,32</t>
+          <t>-18,17; 41,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 21,32</t>
+          <t>-29,23; 21,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 73,84</t>
+          <t>6,89; 72,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 11,31</t>
+          <t>-23,33; 11,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 8,71</t>
+          <t>-27,14; 6,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 0,75</t>
+          <t>-32,13; -1,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 16,75</t>
+          <t>-15,43; 15,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 5,31</t>
+          <t>-23,33; 5,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 18,58</t>
+          <t>-10,54; 18,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,56</t>
+          <t>-1,41; 5,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,71</t>
+          <t>-3,03; 3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,07</t>
+          <t>-4,98; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; -0,49</t>
+          <t>-8,71; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -3,19</t>
+          <t>-11,71; -3,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -3,53</t>
+          <t>-11,2; -3,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,63</t>
+          <t>-4,06; 1,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -1,2</t>
+          <t>-6,35; -1,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -1,93</t>
+          <t>-7,26; -1,76</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 40,14</t>
+          <t>-7,97; 39,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 27,29</t>
+          <t>-17,77; 24,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 14,86</t>
+          <t>-28,39; 15,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -1,38</t>
+          <t>-25,73; 0,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,19; -11,23</t>
+          <t>-34,67; -12,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,38; -12,21</t>
+          <t>-32,91; -12,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 7,44</t>
+          <t>-16,21; 7,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; -5,3</t>
+          <t>-25,15; -4,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,44; -8,49</t>
+          <t>-28,72; -8,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 4,37</t>
+          <t>-3,56; 4,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 3,51</t>
+          <t>-4,15; 4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,63</t>
+          <t>-3,86; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,2</t>
+          <t>-3,26; 6,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -0,07</t>
+          <t>-8,73; 0,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -3,54</t>
+          <t>-15,44; -3,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,12</t>
+          <t>-2,15; 4,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,67</t>
+          <t>-5,25; 0,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -0,91</t>
+          <t>-8,78; -1,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 31,93</t>
+          <t>-19,54; 32,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 26,09</t>
+          <t>-22,77; 29,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 26,06</t>
+          <t>-21,65; 31,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 26,68</t>
+          <t>-11,85; 25,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,78; -0,34</t>
+          <t>-30,16; 0,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,86; -14,41</t>
+          <t>-54,21; -15,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 21,07</t>
+          <t>-9,01; 20,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 3,82</t>
+          <t>-23,36; 4,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,32; -4,86</t>
+          <t>-39,84; -6,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,98</t>
+          <t>-2,95; 3,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,76</t>
+          <t>-2,69; 3,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,93</t>
+          <t>1,38; 7,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,16</t>
+          <t>-5,58; 1,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 0,76</t>
+          <t>-7,58; 0,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,64</t>
+          <t>-5,77; 1,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,86</t>
+          <t>-3,34; 1,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,29</t>
+          <t>-4,36; 1,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,83</t>
+          <t>-1,17; 3,77</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 31,09</t>
+          <t>-18,65; 28,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 28,37</t>
+          <t>-16,41; 28,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,72; 59,98</t>
+          <t>8,43; 62,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 8,96</t>
+          <t>-19,57; 7,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 3,09</t>
+          <t>-26,23; 1,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 6,81</t>
+          <t>-20,2; 6,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 9,97</t>
+          <t>-15,2; 9,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 6,53</t>
+          <t>-19,37; 6,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 19,63</t>
+          <t>-5,55; 19,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,91</t>
+          <t>-0,98; 2,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,94</t>
+          <t>-1,62; 1,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,94</t>
+          <t>0,11; 3,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,35</t>
+          <t>-4,03; 0,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -2,67</t>
+          <t>-6,97; -2,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -3,18</t>
+          <t>-8,15; -3,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,12</t>
+          <t>-1,97; 0,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -0,88</t>
+          <t>-3,75; -0,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,04</t>
+          <t>-3,18; -0,05</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 19,6</t>
+          <t>-5,96; 18,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 12,97</t>
+          <t>-9,89; 12,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,23; 26,45</t>
+          <t>0,64; 26,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 1,3</t>
+          <t>-13,45; 1,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -9,71</t>
+          <t>-23,37; -9,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,08; -11,71</t>
+          <t>-27,48; -11,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,21</t>
+          <t>-8,47; 3,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -4,06</t>
+          <t>-16,46; -4,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -0,21</t>
+          <t>-13,78; -0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 7,89</t>
+          <t>-12,48; 7,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 12,42</t>
+          <t>-8,54; 11,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 17,95</t>
+          <t>-6,22; 17,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 8,81</t>
+          <t>-14,83; 7,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 12,28</t>
+          <t>-11,57; 11,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 14,19</t>
+          <t>-6,98; 13,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 4,82</t>
+          <t>-10,7; 5,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,42</t>
+          <t>-7,55; 9,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 13,22</t>
+          <t>-1,56; 13,0</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 55,53</t>
+          <t>-49,95; 58,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 84,54</t>
+          <t>-33,91; 82,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 116,5</t>
+          <t>-25,4; 114,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 37,23</t>
+          <t>-42,45; 34,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 54,13</t>
+          <t>-33,73; 49,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 59,9</t>
+          <t>-19,81; 59,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 23,31</t>
+          <t>-37,07; 24,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 40,88</t>
+          <t>-26,58; 46,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 65,16</t>
+          <t>-5,44; 63,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 5,93</t>
+          <t>-2,5; 6,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,03</t>
+          <t>-5,24; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 10,43</t>
+          <t>1,16; 10,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 3,19</t>
+          <t>-7,33; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 1,68</t>
+          <t>-8,86; 1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -0,27</t>
+          <t>-9,85; 0,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,34</t>
+          <t>-3,96; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,27</t>
+          <t>-5,47; 1,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 3,97</t>
+          <t>-2,88; 4,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 41,33</t>
+          <t>-13,58; 46,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 21,0</t>
+          <t>-28,18; 22,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 72,24</t>
+          <t>6,46; 72,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 11,61</t>
+          <t>-22,66; 13,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 6,18</t>
+          <t>-27,41; 6,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,13; -1,01</t>
+          <t>-30,04; 0,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 15,69</t>
+          <t>-15,83; 14,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 5,87</t>
+          <t>-22,17; 6,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 18,6</t>
+          <t>-11,88; 18,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,42</t>
+          <t>-1,37; 5,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,38</t>
+          <t>-3,27; 3,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,13</t>
+          <t>-5,16; 2,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,12</t>
+          <t>-8,13; 0,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -3,67</t>
+          <t>-11,48; -3,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -3,64</t>
+          <t>-10,99; -3,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,57</t>
+          <t>-4,23; 1,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -1,02</t>
+          <t>-6,36; -0,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -1,76</t>
+          <t>-6,9; -1,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 39,35</t>
+          <t>-7,95; 39,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 24,74</t>
+          <t>-18,96; 24,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 15,26</t>
+          <t>-29,8; 13,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 0,65</t>
+          <t>-24,29; 1,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -12,38</t>
+          <t>-34,13; -10,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -12,45</t>
+          <t>-32,32; -12,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 7,22</t>
+          <t>-16,31; 7,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -4,7</t>
+          <t>-25,59; -3,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,72; -8,2</t>
+          <t>-27,65; -6,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,52</t>
+          <t>-3,68; 4,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,06</t>
+          <t>-4,07; 3,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,19</t>
+          <t>-4,33; 3,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,15</t>
+          <t>-3,63; 5,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 0,05</t>
+          <t>-8,63; 0,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -3,79</t>
+          <t>-15,05; -3,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,05</t>
+          <t>-2,22; 4,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 0,86</t>
+          <t>-4,88; 1,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -1,29</t>
+          <t>-8,54; -1,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 32,16</t>
+          <t>-21,46; 30,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 29,13</t>
+          <t>-22,83; 27,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 31,19</t>
+          <t>-24,13; 26,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 25,37</t>
+          <t>-13,38; 23,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 0,37</t>
+          <t>-30,85; 2,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,21; -15,9</t>
+          <t>-53,13; -14,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 20,7</t>
+          <t>-9,76; 21,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 4,67</t>
+          <t>-21,99; 5,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -6,82</t>
+          <t>-38,05; -6,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,73</t>
+          <t>-2,78; 3,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,74</t>
+          <t>-2,61; 3,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,9</t>
+          <t>1,53; 8,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,93</t>
+          <t>-5,56; 2,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,46</t>
+          <t>-7,52; 0,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,65</t>
+          <t>-5,35; 1,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,85</t>
+          <t>-3,25; 1,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 1,23</t>
+          <t>-4,12; 0,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,77</t>
+          <t>-1,04; 3,92</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 28,0</t>
+          <t>-17,75; 28,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 28,64</t>
+          <t>-16,44; 28,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,43; 62,28</t>
+          <t>9,52; 62,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 7,96</t>
+          <t>-19,82; 8,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 1,99</t>
+          <t>-26,11; 2,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 6,61</t>
+          <t>-19,04; 5,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 9,5</t>
+          <t>-15,02; 10,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 6,53</t>
+          <t>-18,96; 4,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 19,13</t>
+          <t>-4,93; 20,42</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,72</t>
+          <t>-1,0; 2,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,79</t>
+          <t>-1,78; 1,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,91</t>
+          <t>0,11; 4,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,33</t>
+          <t>-4,16; 0,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -2,48</t>
+          <t>-7,0; -2,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -3,06</t>
+          <t>-8,05; -3,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,84</t>
+          <t>-1,94; 1,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,95</t>
+          <t>-3,82; -0,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,05</t>
+          <t>-3,11; -0,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 18,6</t>
+          <t>-6,15; 19,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 12,21</t>
+          <t>-10,95; 11,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,64; 26,39</t>
+          <t>0,64; 27,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 1,25</t>
+          <t>-13,91; 0,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,37; -9,13</t>
+          <t>-23,54; -9,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,48; -11,29</t>
+          <t>-27,56; -11,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,96</t>
+          <t>-8,47; 5,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -4,56</t>
+          <t>-16,56; -4,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -0,25</t>
+          <t>-13,59; -0,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 7,94</t>
+          <t>-3,47; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 11,92</t>
+          <t>-4,47; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 17,22</t>
+          <t>1,29; 9,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 7,93</t>
+          <t>-7,26; 2,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 11,5</t>
+          <t>-8,21; 1,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 13,47</t>
+          <t>-9,88; 0,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 5,03</t>
+          <t>-3,8; 2,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 9,22</t>
+          <t>-4,77; 1,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 13,0</t>
+          <t>-2,8; 3,94</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,06%</t>
+          <t>-7,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 58,75</t>
+          <t>-17,92; 32,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 82,5</t>
+          <t>-23,68; 22,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 114,47</t>
+          <t>6,9; 64,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 34,06</t>
+          <t>-22,54; 8,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 49,62</t>
+          <t>-25,16; 6,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 59,59</t>
+          <t>-31,25; 0,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 24,66</t>
+          <t>-15,54; 10,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 46,08</t>
+          <t>-18,71; 8,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 63,47</t>
+          <t>-11,12; 17,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-6,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,5</t>
+          <t>-1,37; 5,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,26</t>
+          <t>-3,27; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,47</t>
+          <t>-10,36; 0,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,47</t>
+          <t>-8,13; 0,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 1,99</t>
+          <t>-11,48; -3,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,07</t>
+          <t>-10,83; -3,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,18</t>
+          <t>-4,23; 1,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,38</t>
+          <t>-6,36; -0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,03</t>
+          <t>-11,87; -2,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>-24,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,18%</t>
+          <t>-24,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-5,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>-16,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>-26,41%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 46,23</t>
+          <t>-7,95; 39,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 22,68</t>
+          <t>-18,96; 24,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 72,43</t>
+          <t>-59,32; 2,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 13,0</t>
+          <t>-24,29; 1,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 6,69</t>
+          <t>-34,13; -10,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 0,43</t>
+          <t>-32,1; -12,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 14,6</t>
+          <t>-16,31; 7,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 6,16</t>
+          <t>-25,59; -3,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 18,29</t>
+          <t>-49,35; -12,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-5,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,35</t>
+          <t>-3,68; 4,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,3</t>
+          <t>-4,07; 3,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,0</t>
+          <t>-4,39; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 0,42</t>
+          <t>-3,63; 5,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -3,24</t>
+          <t>-8,63; 0,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -3,62</t>
+          <t>-18,77; -4,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,58</t>
+          <t>-2,22; 4,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,82</t>
+          <t>-4,88; 1,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -1,44</t>
+          <t>-11,73; -2,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,22%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>-39,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,05%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,01%</t>
+          <t>-25,41%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 39,62</t>
+          <t>-21,46; 30,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 24,92</t>
+          <t>-22,83; 27,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 13,36</t>
+          <t>-24,77; 28,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 1,41</t>
+          <t>-13,38; 23,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,13; -10,93</t>
+          <t>-30,85; 2,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,32; -12,0</t>
+          <t>-68,34; -17,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 7,07</t>
+          <t>-9,76; 21,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,59; -3,65</t>
+          <t>-21,99; 5,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,65; -6,63</t>
+          <t>-52,42; -10,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,31</t>
+          <t>-2,78; 3,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,89</t>
+          <t>-2,61; 3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,89</t>
+          <t>1,26; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,61</t>
+          <t>-5,56; 2,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 0,58</t>
+          <t>-7,52; 0,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -3,57</t>
+          <t>-8,48; 0,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,18</t>
+          <t>-3,25; 1,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,14</t>
+          <t>-4,12; 0,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -1,32</t>
+          <t>-2,58; 2,84</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>-6,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
+          <t>-12,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-31,97%</t>
+          <t>-12,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 30,92</t>
+          <t>-17,75; 28,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 27,42</t>
+          <t>-16,44; 28,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 26,95</t>
+          <t>7,42; 59,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 23,53</t>
+          <t>-19,82; 8,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 2,51</t>
+          <t>-26,11; 2,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,13; -14,76</t>
+          <t>-29,81; 0,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 21,23</t>
+          <t>-15,02; 10,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 5,67</t>
+          <t>-18,96; 4,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,05; -6,6</t>
+          <t>-11,9; 14,36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,59</t>
+          <t>-1,0; 2,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,62</t>
+          <t>-1,78; 1,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,03</t>
+          <t>-2,7; 3,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,12</t>
+          <t>-4,16; 0,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,38</t>
+          <t>-7,0; -2,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,46</t>
+          <t>-10,95; -4,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,96</t>
+          <t>-1,94; 1,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,92</t>
+          <t>-3,82; -0,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,92</t>
+          <t>-5,54; -1,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,54%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-10,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>-12,84%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 28,03</t>
+          <t>-6,15; 19,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 28,58</t>
+          <t>-10,95; 11,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,52; 62,47</t>
+          <t>-17,04; 20,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 8,78</t>
+          <t>-13,91; 0,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 2,04</t>
+          <t>-23,54; -9,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 5,9</t>
+          <t>-37,43; -14,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 10,05</t>
+          <t>-8,47; 5,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 4,84</t>
+          <t>-16,56; -4,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 20,42</t>
+          <t>-24,56; -4,99</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-4,76</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-5,29</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 2,87</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 1,72</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 4,04</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 0,07</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-7,0; -2,57</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; -3,2</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 1,08</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; -0,96</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; -0,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-6,81%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-16,62%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-18,49%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-2,1%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-10,64%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-6,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-6,15; 19,26</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; 11,33</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 27,29</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; 0,33</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-23,54; -9,4</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-27,56; -11,8</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 5,0</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; -4,48</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; -0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 4,87</t>
+          <t>-3,35; 5,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,4</t>
+          <t>-4,68; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,66</t>
+          <t>1,67; 10,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,23</t>
+          <t>-7,0; 2,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,83</t>
+          <t>-7,64; 2,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 0,15</t>
+          <t>-10,77; 0,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,37</t>
+          <t>-3,93; 2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,73</t>
+          <t>-4,76; 1,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,94</t>
+          <t>-3,12; 4,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 32,74</t>
+          <t>-17,1; 32,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 22,0</t>
+          <t>-24,42; 21,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 64,55</t>
+          <t>9,29; 66,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 8,13</t>
+          <t>-21,76; 9,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 6,78</t>
+          <t>-23,96; 7,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 0,01</t>
+          <t>-33,68; -0,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 10,56</t>
+          <t>-15,71; 12,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 8,08</t>
+          <t>-18,93; 6,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 17,7</t>
+          <t>-12,4; 18,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,35</t>
+          <t>-1,48; 5,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,3</t>
+          <t>-2,96; 3,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 0,5</t>
+          <t>-10,13; 0,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 0,42</t>
+          <t>-9,04; -0,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -3,24</t>
+          <t>-12,02; -3,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -3,53</t>
+          <t>-10,76; -3,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,58</t>
+          <t>-3,78; 1,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,82</t>
+          <t>-6,3; -0,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -2,83</t>
+          <t>-12,37; -2,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 39,62</t>
+          <t>-8,33; 38,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 24,92</t>
+          <t>-17,76; 25,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 2,96</t>
+          <t>-60,27; 2,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 1,41</t>
+          <t>-26,84; -1,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,13; -10,93</t>
+          <t>-35,59; -11,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,1; -12,03</t>
+          <t>-31,59; -11,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 7,07</t>
+          <t>-14,86; 7,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,59; -3,65</t>
+          <t>-25,44; -4,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,35; -12,36</t>
+          <t>-51,28; -13,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,31</t>
+          <t>-3,57; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,89</t>
+          <t>-4,27; 3,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,03</t>
+          <t>-4,27; 4,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,61</t>
+          <t>-3,21; 6,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 0,58</t>
+          <t>-8,7; 0,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,77; -4,24</t>
+          <t>-19,13; -4,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,18</t>
+          <t>-2,03; 4,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,14</t>
+          <t>-5,19; 0,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -2,16</t>
+          <t>-11,76; -2,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 30,92</t>
+          <t>-20,15; 29,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 27,42</t>
+          <t>-23,39; 25,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 28,23</t>
+          <t>-24,06; 29,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 23,53</t>
+          <t>-11,41; 25,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 2,51</t>
+          <t>-30,81; 2,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -17,77</t>
+          <t>-67,19; -17,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 21,23</t>
+          <t>-9,15; 21,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 5,67</t>
+          <t>-23,51; 3,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,42; -10,65</t>
+          <t>-51,26; -10,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,59</t>
+          <t>-2,7; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,62</t>
+          <t>-2,82; 3,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,7</t>
+          <t>1,18; 7,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,12</t>
+          <t>-5,44; 2,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,38</t>
+          <t>-7,32; 0,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,2</t>
+          <t>-8,05; 0,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,96</t>
+          <t>-3,18; 1,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,92</t>
+          <t>-4,2; 1,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,84</t>
+          <t>-2,4; 3,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 28,03</t>
+          <t>-17,09; 29,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 28,58</t>
+          <t>-17,9; 29,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 59,21</t>
+          <t>7,27; 61,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 8,78</t>
+          <t>-19,12; 9,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 2,04</t>
+          <t>-26,21; 3,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 0,63</t>
+          <t>-29,49; 1,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 10,05</t>
+          <t>-14,79; 9,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 4,84</t>
+          <t>-19,1; 6,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 14,36</t>
+          <t>-11,08; 15,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,87</t>
+          <t>-0,77; 2,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,72</t>
+          <t>-1,77; 1,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,08</t>
+          <t>-2,55; 2,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,07</t>
+          <t>-4,03; 0,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -2,57</t>
+          <t>-6,81; -2,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -4,06</t>
+          <t>-10,94; -4,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,08</t>
+          <t>-1,92; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,96</t>
+          <t>-3,87; -1,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,1</t>
+          <t>-5,39; -1,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 19,26</t>
+          <t>-4,86; 19,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,33</t>
+          <t>-10,43; 12,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 20,43</t>
+          <t>-16,45; 19,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 0,33</t>
+          <t>-13,6; 1,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -9,4</t>
+          <t>-23,1; -9,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -14,69</t>
+          <t>-37,41; -14,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 5,0</t>
+          <t>-8,28; 3,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,48</t>
+          <t>-16,73; -4,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -4,99</t>
+          <t>-23,76; -4,93</t>
         </is>
       </c>
     </row>
